--- a/Project.WebApplication/TemplateFile/EmployeeExport.xlsx
+++ b/Project.WebApplication/TemplateFile/EmployeeExport.xlsx
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,12 +121,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">必填项：0女 1男；
+请填写0或1的数字</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>所属机构</t>
   </si>
@@ -137,6 +151,9 @@
     <t>员工工员</t>
   </si>
   <si>
+    <t>姓别编码</t>
+  </si>
+  <si>
     <t>姓别</t>
   </si>
   <si>
@@ -171,6 +188,9 @@
   </si>
   <si>
     <t>&amp;=EmployeeInfo.Sex</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=IF($D{r}=1,"男","女")</t>
   </si>
   <si>
     <t>&amp;=EmployeeInfo.CertNo</t>
@@ -199,8 +219,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -227,8 +247,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -242,6 +276,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -249,15 +284,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,52 +349,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -326,17 +370,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,21 +379,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,31 +399,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,13 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +531,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,108 +567,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,12 +580,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,15 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -614,9 +625,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,7 +638,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +658,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -656,17 +678,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,6 +696,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,137 +725,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,19 +865,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,24 +1229,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="51.25" customWidth="1"/>
+    <col min="2" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,13 +1255,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1254,40 +1279,46 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Project.WebApplication/TemplateFile/EmployeeExport.xlsx
+++ b/Project.WebApplication/TemplateFile/EmployeeExport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,161 +15,49 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">机构编号，导入前请根据系统填入
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">必填项
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">必填项：0女 1男；
-请填写0或1的数字</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">请根据日期格式写</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1：在职
-2：离职
-3：退休
-不填默认 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1：正式工
-0：临时工
-不填则默认0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">初始化必填：不填则不修改原有数据
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">必填项：0女 1男；
-请填写0或1的数字</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
-  <si>
-    <t>所属机构</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+  <si>
+    <t>所属部门</t>
+  </si>
+  <si>
+    <t>员工编号</t>
   </si>
   <si>
     <t>员工名称</t>
   </si>
   <si>
-    <t>员工工员</t>
-  </si>
-  <si>
-    <t>姓别编码</t>
+    <t>工号</t>
   </si>
   <si>
     <t>姓别</t>
   </si>
   <si>
-    <t>身份证号</t>
+    <t>身份证</t>
   </si>
   <si>
     <t>生日</t>
   </si>
   <si>
+    <t>参加工作时间</t>
+  </si>
+  <si>
+    <t>单位职务</t>
+  </si>
+  <si>
+    <t>岗位性质</t>
+  </si>
+  <si>
+    <t>入党时间</t>
+  </si>
+  <si>
     <t>在职状态</t>
   </si>
   <si>
     <t>员工类型</t>
   </si>
   <si>
-    <t>工龄</t>
+    <t>岗位等级</t>
   </si>
   <si>
     <t>手机号</t>
@@ -181,16 +69,16 @@
     <t>&amp;=EmployeeInfo.DepartmentName</t>
   </si>
   <si>
+    <t>&amp;=EmployeeInfo.EmployeeCode</t>
+  </si>
+  <si>
     <t>&amp;=EmployeeInfo.EmployeeName</t>
   </si>
   <si>
     <t>&amp;=EmployeeInfo.JobName</t>
   </si>
   <si>
-    <t>&amp;=EmployeeInfo.Sex</t>
-  </si>
-  <si>
-    <t>&amp;=&amp;=IF($D{r}=1,"男","女")</t>
+    <t>&amp;=EmployeeInfo.SexName</t>
   </si>
   <si>
     <t>&amp;=EmployeeInfo.CertNo</t>
@@ -199,13 +87,25 @@
     <t>&amp;=EmployeeInfo.Birthday</t>
   </si>
   <si>
-    <t>&amp;=EmployeeInfo.WorkStateName</t>
+    <t>&amp;=EmployeeInfo.StartWork</t>
+  </si>
+  <si>
+    <t>&amp;=EmployeeInfo.DutiesName</t>
+  </si>
+  <si>
+    <t>&amp;=EmployeeInfo.PostPropertyName</t>
+  </si>
+  <si>
+    <t>&amp;=EmployeeInfo.JoinCommy</t>
+  </si>
+  <si>
+    <t>&amp;=EmployeeInfo.WorkState</t>
   </si>
   <si>
     <t>&amp;=EmployeeInfo.EmployeeTypeName</t>
   </si>
   <si>
-    <t>&amp;=EmployeeInfo.WorkingYears</t>
+    <t>&amp;=EmployeeInfo.PostLevelName</t>
   </si>
   <si>
     <t>&amp;=EmployeeInfo.MobileNO</t>
@@ -218,13 +118,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,28 +135,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,45 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -317,22 +181,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -340,14 +250,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -355,9 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,13 +273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,25 +299,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,151 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +502,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -619,26 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,24 +543,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +570,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -713,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,137 +619,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,22 +762,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,6 +829,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1229,39 +1121,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="5" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="51.25" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="14" width="23.375" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1282,50 +1177,73 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Project.WebApplication/TemplateFile/EmployeeExport.xlsx
+++ b/Project.WebApplication/TemplateFile/EmployeeExport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>所属部门</t>
   </si>
@@ -60,6 +60,9 @@
     <t>岗位等级</t>
   </si>
   <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
     <t>手机号</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
   </si>
   <si>
     <t>&amp;=EmployeeInfo.PostLevelName</t>
+  </si>
+  <si>
+    <t>&amp;=EmployeeInfo.PoliticsName</t>
   </si>
   <si>
     <t>&amp;=EmployeeInfo.MobileNO</t>
@@ -119,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="20">
@@ -135,6 +141,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,6 +156,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,9 +190,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +237,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -181,37 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,60 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +299,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,169 +461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,30 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -543,6 +525,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -552,17 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,11 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,145 +613,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1135,12 +1141,12 @@
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="14" width="23.375" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="51.25" customWidth="1"/>
+    <col min="10" max="15" width="23.375" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,55 +1195,61 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
